--- a/Code/Results/Cases/Case_0_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_212/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03554510971137681</v>
+        <v>0.05656054044545522</v>
       </c>
       <c r="D2">
-        <v>0.8538434516601114</v>
+        <v>0.2075482465267271</v>
       </c>
       <c r="E2">
-        <v>0.9308549047204622</v>
+        <v>0.2552946381726144</v>
       </c>
       <c r="F2">
-        <v>3.837950014964775</v>
+        <v>3.333329663450471</v>
       </c>
       <c r="G2">
-        <v>0.0006077898984823279</v>
+        <v>0.002583975018539875</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.603890839369726</v>
+        <v>2.395642200967131</v>
       </c>
       <c r="J2">
-        <v>1.396615720243943</v>
+        <v>0.3588304544780385</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>37.38753867716116</v>
+        <v>11.41472593379063</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01491768466986798</v>
+        <v>0.06090809120972329</v>
       </c>
       <c r="D3">
-        <v>0.6964715220696291</v>
+        <v>0.1806669943574093</v>
       </c>
       <c r="E3">
-        <v>0.7663848248912757</v>
+        <v>0.2237598830503629</v>
       </c>
       <c r="F3">
-        <v>2.637477446720368</v>
+        <v>3.445213852228918</v>
       </c>
       <c r="G3">
-        <v>0.0006546240884445092</v>
+        <v>0.002599019003974391</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.590673731865408</v>
+        <v>2.440428772863896</v>
       </c>
       <c r="J3">
-        <v>1.10998512081099</v>
+        <v>0.3186299615547057</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>30.65687691152425</v>
+        <v>10.15824920377452</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007778943236266045</v>
+        <v>0.06374839541784327</v>
       </c>
       <c r="D4">
-        <v>0.6122655894802165</v>
+        <v>0.1642245098005333</v>
       </c>
       <c r="E4">
-        <v>0.6778707095865641</v>
+        <v>0.2044081188946194</v>
       </c>
       <c r="F4">
-        <v>2.133829168868189</v>
+        <v>3.521793070907307</v>
       </c>
       <c r="G4">
-        <v>0.000680118842397755</v>
+        <v>0.002608633122860526</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.143277096367058</v>
+        <v>2.473404507596712</v>
       </c>
       <c r="J4">
-        <v>0.9649548905500325</v>
+        <v>0.2941527734772649</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.06437903394465</v>
+        <v>9.386271719037552</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005710371527344549</v>
+        <v>0.06494785784233592</v>
       </c>
       <c r="D5">
-        <v>0.5799025989223594</v>
+        <v>0.1575373916587353</v>
       </c>
       <c r="E5">
-        <v>0.6437313956331892</v>
+        <v>0.1965229795758745</v>
       </c>
       <c r="F5">
-        <v>1.96478731347058</v>
+        <v>3.554935876329495</v>
       </c>
       <c r="G5">
-        <v>0.0006900438762394621</v>
+        <v>0.002612646689714803</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.988105181117717</v>
+        <v>2.488184804421849</v>
       </c>
       <c r="J5">
-        <v>0.9105698266421456</v>
+        <v>0.2842253406145403</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.68368245385346</v>
+        <v>9.071478596825898</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005407787308046252</v>
+        <v>0.06514953797769207</v>
       </c>
       <c r="D6">
-        <v>0.5746246250649278</v>
+        <v>0.1564277365361875</v>
       </c>
       <c r="E6">
-        <v>0.6381567359862288</v>
+        <v>0.1952136598363268</v>
       </c>
       <c r="F6">
-        <v>1.938494674258578</v>
+        <v>3.560554839942441</v>
       </c>
       <c r="G6">
-        <v>0.0006916704596210303</v>
+        <v>0.002613318947923631</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.963671917240461</v>
+        <v>2.490719145431868</v>
       </c>
       <c r="J6">
-        <v>0.9017678425015276</v>
+        <v>0.2825796220681127</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.45847087839627</v>
+        <v>9.019192743556459</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007748116510477132</v>
+        <v>0.06376440290559549</v>
       </c>
       <c r="D7">
-        <v>0.6118222800612898</v>
+        <v>0.1641342741693563</v>
       </c>
       <c r="E7">
-        <v>0.6774035516338657</v>
+        <v>0.2043017759620938</v>
       </c>
       <c r="F7">
-        <v>2.131422495593256</v>
+        <v>3.522232266429882</v>
       </c>
       <c r="G7">
-        <v>0.0006802542596397181</v>
+        <v>0.002608686862348194</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.141089183887118</v>
+        <v>2.473598449516928</v>
       </c>
       <c r="J7">
-        <v>0.9642050347269162</v>
+        <v>0.2940187032817221</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.04546807045648</v>
+        <v>9.382027245894221</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02679785901337084</v>
+        <v>0.05802352198778715</v>
       </c>
       <c r="D8">
-        <v>0.7959919420434574</v>
+        <v>0.1982650624302664</v>
       </c>
       <c r="E8">
-        <v>0.8705124497823959</v>
+        <v>0.2444180730842334</v>
       </c>
       <c r="F8">
-        <v>3.355753446514456</v>
+        <v>3.370243449847294</v>
       </c>
       <c r="G8">
-        <v>0.0006249256009034365</v>
+        <v>0.002589084494513873</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.203510314930995</v>
+        <v>2.4099267108395</v>
       </c>
       <c r="J8">
-        <v>1.288665948162077</v>
+        <v>0.3449236650505441</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>34.90906284148645</v>
+        <v>10.98154423438388</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02679785901337084</v>
+        <v>0.04816613556701599</v>
       </c>
       <c r="D9">
-        <v>0.7959919420434574</v>
+        <v>0.2658117973180083</v>
       </c>
       <c r="E9">
-        <v>0.8705124497823959</v>
+        <v>0.3232654723109789</v>
       </c>
       <c r="F9">
-        <v>3.355753446514456</v>
+        <v>3.136862360837881</v>
       </c>
       <c r="G9">
-        <v>0.0006249256009034365</v>
+        <v>0.002553592284770111</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.203510314930995</v>
+        <v>2.330138991276542</v>
       </c>
       <c r="J9">
-        <v>1.288665948162077</v>
+        <v>0.4466134486579847</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.90906284148645</v>
+        <v>14.11841718582878</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02679785901337084</v>
+        <v>0.04184178325499843</v>
       </c>
       <c r="D10">
-        <v>0.7959919420434574</v>
+        <v>0.3159919893975882</v>
       </c>
       <c r="E10">
-        <v>0.8705124497823959</v>
+        <v>0.3814533064968373</v>
       </c>
       <c r="F10">
-        <v>3.355753446514456</v>
+        <v>3.007879980196037</v>
       </c>
       <c r="G10">
-        <v>0.0006249256009034365</v>
+        <v>0.002529249383284637</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.203510314930995</v>
+        <v>2.301326257851684</v>
       </c>
       <c r="J10">
-        <v>1.288665948162077</v>
+        <v>0.5228161314431645</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>34.90906284148645</v>
+        <v>16.42971922713639</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02679785901337084</v>
+        <v>0.03917890693996462</v>
       </c>
       <c r="D11">
-        <v>0.7959919420434574</v>
+        <v>0.3389823449212201</v>
       </c>
       <c r="E11">
-        <v>0.8705124497823959</v>
+        <v>0.4080174662851448</v>
       </c>
       <c r="F11">
-        <v>3.355753446514456</v>
+        <v>2.959133256360872</v>
       </c>
       <c r="G11">
-        <v>0.0006249256009034365</v>
+        <v>0.002518536807825367</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.203510314930995</v>
+        <v>2.29522883347579</v>
       </c>
       <c r="J11">
-        <v>1.288665948162077</v>
+        <v>0.5578929729263393</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34.90906284148645</v>
+        <v>17.48422909488204</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02679785901337084</v>
+        <v>0.03820266581377396</v>
       </c>
       <c r="D12">
-        <v>0.7959919420434574</v>
+        <v>0.3477152502007073</v>
       </c>
       <c r="E12">
-        <v>0.8705124497823959</v>
+        <v>0.4180934067476159</v>
       </c>
       <c r="F12">
-        <v>3.355753446514456</v>
+        <v>2.942163918013961</v>
       </c>
       <c r="G12">
-        <v>0.0006249256009034365</v>
+        <v>0.00251453091751811</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.203510314930995</v>
+        <v>2.293975057569227</v>
       </c>
       <c r="J12">
-        <v>1.288665948162077</v>
+        <v>0.5712425848237217</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>34.90906284148645</v>
+        <v>17.88412875839322</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02679785901337084</v>
+        <v>0.03841146546659413</v>
       </c>
       <c r="D13">
-        <v>0.7959919420434574</v>
+        <v>0.3458332059236398</v>
       </c>
       <c r="E13">
-        <v>0.8705124497823959</v>
+        <v>0.4159225787832526</v>
       </c>
       <c r="F13">
-        <v>3.355753446514456</v>
+        <v>2.945751273035881</v>
       </c>
       <c r="G13">
-        <v>0.0006249256009034365</v>
+        <v>0.002515391421163126</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.203510314930995</v>
+        <v>2.294197372680628</v>
       </c>
       <c r="J13">
-        <v>1.288665948162077</v>
+        <v>0.5683644106220527</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>34.90906284148645</v>
+        <v>17.79797514926526</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02679785901337084</v>
+        <v>0.03909793903581615</v>
       </c>
       <c r="D14">
-        <v>0.7959919420434574</v>
+        <v>0.3397002452521463</v>
       </c>
       <c r="E14">
-        <v>0.8705124497823959</v>
+        <v>0.4088460670711953</v>
       </c>
       <c r="F14">
-        <v>3.355753446514456</v>
+        <v>2.95770694826146</v>
       </c>
       <c r="G14">
-        <v>0.0006249256009034365</v>
+        <v>0.002518206231185914</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.203510314930995</v>
+        <v>2.295104257829991</v>
       </c>
       <c r="J14">
-        <v>1.288665948162077</v>
+        <v>0.5589898699062701</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34.90906284148645</v>
+        <v>17.51711664633206</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02679785901337084</v>
+        <v>0.03952264973267638</v>
       </c>
       <c r="D15">
-        <v>0.7959919420434574</v>
+        <v>0.3359472477254712</v>
       </c>
       <c r="E15">
-        <v>0.8705124497823959</v>
+        <v>0.4045137673118262</v>
       </c>
       <c r="F15">
-        <v>3.355753446514456</v>
+        <v>2.965226091377076</v>
       </c>
       <c r="G15">
-        <v>0.0006249256009034365</v>
+        <v>0.002519936953525826</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.203510314930995</v>
+        <v>2.295798610881846</v>
       </c>
       <c r="J15">
-        <v>1.288665948162077</v>
+        <v>0.5532566232052147</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34.90906284148645</v>
+        <v>17.34516241147986</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02679785901337084</v>
+        <v>0.04202022997396249</v>
       </c>
       <c r="D16">
-        <v>0.7959919420434574</v>
+        <v>0.3144930925328708</v>
       </c>
       <c r="E16">
-        <v>0.8705124497823959</v>
+        <v>0.3797194329811475</v>
       </c>
       <c r="F16">
-        <v>3.355753446514456</v>
+        <v>3.011270726707664</v>
       </c>
       <c r="G16">
-        <v>0.0006249256009034365</v>
+        <v>0.002529956641052987</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.203510314930995</v>
+        <v>2.301869770705366</v>
       </c>
       <c r="J16">
-        <v>1.288665948162077</v>
+        <v>0.5205326966751613</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>34.90906284148645</v>
+        <v>16.36087799942749</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02679785901337084</v>
+        <v>0.04360818417469314</v>
       </c>
       <c r="D17">
-        <v>0.7959919420434574</v>
+        <v>0.3013758691899113</v>
       </c>
       <c r="E17">
-        <v>0.8705124497823959</v>
+        <v>0.364535182913869</v>
       </c>
       <c r="F17">
-        <v>3.355753446514456</v>
+        <v>3.042103776365423</v>
       </c>
       <c r="G17">
-        <v>0.0006249256009034365</v>
+        <v>0.002536195053266764</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.203510314930995</v>
+        <v>2.307422394272635</v>
       </c>
       <c r="J17">
-        <v>1.288665948162077</v>
+        <v>0.5005682982596511</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>34.90906284148645</v>
+        <v>15.75793518329931</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02679785901337084</v>
+        <v>0.04454160093062587</v>
       </c>
       <c r="D18">
-        <v>0.7959919420434574</v>
+        <v>0.2938463225937085</v>
       </c>
       <c r="E18">
-        <v>0.8705124497823959</v>
+        <v>0.3558102701956614</v>
       </c>
       <c r="F18">
-        <v>3.355753446514456</v>
+        <v>3.060768684445122</v>
       </c>
       <c r="G18">
-        <v>0.0006249256009034365</v>
+        <v>0.002539817289642099</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.203510314930995</v>
+        <v>2.311272930239568</v>
       </c>
       <c r="J18">
-        <v>1.288665948162077</v>
+        <v>0.4891235833190706</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>34.90906284148645</v>
+        <v>15.41142020399315</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02679785901337084</v>
+        <v>0.04486104669500079</v>
       </c>
       <c r="D19">
-        <v>0.7959919420434574</v>
+        <v>0.2912994434676079</v>
       </c>
       <c r="E19">
-        <v>0.8705124497823959</v>
+        <v>0.3528575622702022</v>
       </c>
       <c r="F19">
-        <v>3.355753446514456</v>
+        <v>3.067246277433668</v>
       </c>
       <c r="G19">
-        <v>0.0006249256009034365</v>
+        <v>0.002541049603151943</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.203510314930995</v>
+        <v>2.312688064944297</v>
       </c>
       <c r="J19">
-        <v>1.288665948162077</v>
+        <v>0.4852549536334436</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>34.90906284148645</v>
+        <v>15.2941406244264</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02679785901337084</v>
+        <v>0.04343705733557179</v>
       </c>
       <c r="D20">
-        <v>0.7959919420434574</v>
+        <v>0.3027706290929189</v>
       </c>
       <c r="E20">
-        <v>0.8705124497823959</v>
+        <v>0.366150653550136</v>
       </c>
       <c r="F20">
-        <v>3.355753446514456</v>
+        <v>3.038724795483006</v>
       </c>
       <c r="G20">
-        <v>0.0006249256009034365</v>
+        <v>0.002535527446218877</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.203510314930995</v>
+        <v>2.306762996088366</v>
       </c>
       <c r="J20">
-        <v>1.288665948162077</v>
+        <v>0.5026895280438737</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>34.90906284148645</v>
+        <v>15.8220893636817</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02679785901337084</v>
+        <v>0.03889542194132112</v>
       </c>
       <c r="D21">
-        <v>0.7959919420434574</v>
+        <v>0.341500883940796</v>
       </c>
       <c r="E21">
-        <v>0.8705124497823959</v>
+        <v>0.4109241315067038</v>
       </c>
       <c r="F21">
-        <v>3.355753446514456</v>
+        <v>2.954154325573882</v>
       </c>
       <c r="G21">
-        <v>0.0006249256009034365</v>
+        <v>0.002517378086256727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.203510314930995</v>
+        <v>2.294808857678618</v>
       </c>
       <c r="J21">
-        <v>1.288665948162077</v>
+        <v>0.5617415243887365</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>34.90906284148645</v>
+        <v>17.59959472766877</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02679785901337084</v>
+        <v>0.03611517376221407</v>
       </c>
       <c r="D22">
-        <v>0.7959919420434574</v>
+        <v>0.3669722457311764</v>
       </c>
       <c r="E22">
-        <v>0.8705124497823959</v>
+        <v>0.4402849908347974</v>
       </c>
       <c r="F22">
-        <v>3.355753446514456</v>
+        <v>2.907598764815589</v>
       </c>
       <c r="G22">
-        <v>0.0006249256009034365</v>
+        <v>0.002505811519482462</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.203510314930995</v>
+        <v>2.293170293705515</v>
       </c>
       <c r="J22">
-        <v>1.288665948162077</v>
+        <v>0.6007285657380805</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>34.90906284148645</v>
+        <v>18.76474702840528</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02679785901337084</v>
+        <v>0.03758138005613532</v>
       </c>
       <c r="D23">
-        <v>0.7959919420434574</v>
+        <v>0.3533619494351399</v>
       </c>
       <c r="E23">
-        <v>0.8705124497823959</v>
+        <v>0.4246044066457557</v>
       </c>
       <c r="F23">
-        <v>3.355753446514456</v>
+        <v>2.931627347223753</v>
       </c>
       <c r="G23">
-        <v>0.0006249256009034365</v>
+        <v>0.002511958225769427</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.203510314930995</v>
+        <v>2.293463636507624</v>
       </c>
       <c r="J23">
-        <v>1.288665948162077</v>
+        <v>0.5798818217844541</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>34.90906284148645</v>
+        <v>18.14251987880368</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02679785901337084</v>
+        <v>0.04351436008688836</v>
       </c>
       <c r="D24">
-        <v>0.7959919420434574</v>
+        <v>0.302140021898424</v>
       </c>
       <c r="E24">
-        <v>0.8705124497823959</v>
+        <v>0.3654202848224202</v>
       </c>
       <c r="F24">
-        <v>3.355753446514456</v>
+        <v>3.040249513960021</v>
       </c>
       <c r="G24">
-        <v>0.0006249256009034365</v>
+        <v>0.002535829159915944</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.203510314930995</v>
+        <v>2.307059063220549</v>
       </c>
       <c r="J24">
-        <v>1.288665948162077</v>
+        <v>0.5017304175736115</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>34.90906284148645</v>
+        <v>15.79308487989636</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02679785901337084</v>
+        <v>0.0506764719789059</v>
       </c>
       <c r="D25">
-        <v>0.7959919420434574</v>
+        <v>0.2474548565953114</v>
       </c>
       <c r="E25">
-        <v>0.8705124497823959</v>
+        <v>0.3019013171180518</v>
       </c>
       <c r="F25">
-        <v>3.355753446514456</v>
+        <v>3.192767414498519</v>
       </c>
       <c r="G25">
-        <v>0.0006249256009034365</v>
+        <v>0.002562884707639039</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.203510314930995</v>
+        <v>2.346664137761238</v>
       </c>
       <c r="J25">
-        <v>1.288665948162077</v>
+        <v>0.4188691494290424</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>34.90906284148645</v>
+        <v>13.26914682592604</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_212/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05656054044545522</v>
+        <v>0.0355451097115882</v>
       </c>
       <c r="D2">
-        <v>0.2075482465267271</v>
+        <v>0.8538434516599978</v>
       </c>
       <c r="E2">
-        <v>0.2552946381726144</v>
+        <v>0.9308549047204622</v>
       </c>
       <c r="F2">
-        <v>3.333329663450471</v>
+        <v>3.837950014964747</v>
       </c>
       <c r="G2">
-        <v>0.002583975018539875</v>
+        <v>0.0006077898985459214</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.395642200967131</v>
+        <v>3.603890839369726</v>
       </c>
       <c r="J2">
-        <v>0.3588304544780385</v>
+        <v>1.396615720243943</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.41472593379063</v>
+        <v>37.38753867716127</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06090809120972329</v>
+        <v>0.01491768466986088</v>
       </c>
       <c r="D3">
-        <v>0.1806669943574093</v>
+        <v>0.6964715220694018</v>
       </c>
       <c r="E3">
-        <v>0.2237598830503629</v>
+        <v>0.7663848248912615</v>
       </c>
       <c r="F3">
-        <v>3.445213852228918</v>
+        <v>2.637477446720396</v>
       </c>
       <c r="G3">
-        <v>0.002599019003974391</v>
+        <v>0.0006546240884370835</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.440428772863896</v>
+        <v>2.590673731865422</v>
       </c>
       <c r="J3">
-        <v>0.3186299615547057</v>
+        <v>1.109985120810904</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.15824920377452</v>
+        <v>30.65687691152431</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06374839541784327</v>
+        <v>0.007778943236480984</v>
       </c>
       <c r="D4">
-        <v>0.1642245098005333</v>
+        <v>0.6122655894803017</v>
       </c>
       <c r="E4">
-        <v>0.2044081188946194</v>
+        <v>0.6778707095865713</v>
       </c>
       <c r="F4">
-        <v>3.521793070907307</v>
+        <v>2.133829168868175</v>
       </c>
       <c r="G4">
-        <v>0.002608633122860526</v>
+        <v>0.0006801188423963822</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.473404507596712</v>
+        <v>2.143277096367072</v>
       </c>
       <c r="J4">
-        <v>0.2941527734772649</v>
+        <v>0.9649548905500041</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9.386271719037552</v>
+        <v>27.0643790339447</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06494785784233592</v>
+        <v>0.005710371527559488</v>
       </c>
       <c r="D5">
-        <v>0.1575373916587353</v>
+        <v>0.5799025989223026</v>
       </c>
       <c r="E5">
-        <v>0.1965229795758745</v>
+        <v>0.6437313956331892</v>
       </c>
       <c r="F5">
-        <v>3.554935876329495</v>
+        <v>1.964787313470609</v>
       </c>
       <c r="G5">
-        <v>0.002612646689714803</v>
+        <v>0.0006900438762939875</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.488184804421849</v>
+        <v>1.988105181117731</v>
       </c>
       <c r="J5">
-        <v>0.2842253406145403</v>
+        <v>0.9105698266421172</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.071478596825898</v>
+        <v>25.68368245385369</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06514953797769207</v>
+        <v>0.005407787308485013</v>
       </c>
       <c r="D6">
-        <v>0.1564277365361875</v>
+        <v>0.5746246250649847</v>
       </c>
       <c r="E6">
-        <v>0.1952136598363268</v>
+        <v>0.6381567359862359</v>
       </c>
       <c r="F6">
-        <v>3.560554839942441</v>
+        <v>1.938494674258635</v>
       </c>
       <c r="G6">
-        <v>0.002613318947923631</v>
+        <v>0.0006916704597292878</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.490719145431868</v>
+        <v>1.963671917240504</v>
       </c>
       <c r="J6">
-        <v>0.2825796220681127</v>
+        <v>0.9017678425015987</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.019192743556459</v>
+        <v>25.4584708783965</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06376440290559549</v>
+        <v>0.007748116510702729</v>
       </c>
       <c r="D7">
-        <v>0.1641342741693563</v>
+        <v>0.6118222800612898</v>
       </c>
       <c r="E7">
-        <v>0.2043017759620938</v>
+        <v>0.6774035516338799</v>
       </c>
       <c r="F7">
-        <v>3.522232266429882</v>
+        <v>2.13142249559327</v>
       </c>
       <c r="G7">
-        <v>0.002608686862348194</v>
+        <v>0.0006802542597537467</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.473598449516928</v>
+        <v>2.141089183887118</v>
       </c>
       <c r="J7">
-        <v>0.2940187032817221</v>
+        <v>0.9642050347269446</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9.382027245894221</v>
+        <v>27.04546807045659</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05802352198778715</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D8">
-        <v>0.1982650624302664</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E8">
-        <v>0.2444180730842334</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F8">
-        <v>3.370243449847294</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G8">
-        <v>0.002589084494513873</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.4099267108395</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J8">
-        <v>0.3449236650505441</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.98154423438388</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04816613556701599</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D9">
-        <v>0.2658117973180083</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E9">
-        <v>0.3232654723109789</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F9">
-        <v>3.136862360837881</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G9">
-        <v>0.002553592284770111</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.330138991276542</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J9">
-        <v>0.4466134486579847</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.11841718582878</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04184178325499843</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D10">
-        <v>0.3159919893975882</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E10">
-        <v>0.3814533064968373</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F10">
-        <v>3.007879980196037</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G10">
-        <v>0.002529249383284637</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.301326257851684</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J10">
-        <v>0.5228161314431645</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.42971922713639</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03917890693996462</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D11">
-        <v>0.3389823449212201</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E11">
-        <v>0.4080174662851448</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F11">
-        <v>2.959133256360872</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G11">
-        <v>0.002518536807825367</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.29522883347579</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J11">
-        <v>0.5578929729263393</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.48422909488204</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03820266581377396</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D12">
-        <v>0.3477152502007073</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E12">
-        <v>0.4180934067476159</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F12">
-        <v>2.942163918013961</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G12">
-        <v>0.00251453091751811</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.293975057569227</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J12">
-        <v>0.5712425848237217</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.88412875839322</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03841146546659413</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D13">
-        <v>0.3458332059236398</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E13">
-        <v>0.4159225787832526</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F13">
-        <v>2.945751273035881</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G13">
-        <v>0.002515391421163126</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.294197372680628</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J13">
-        <v>0.5683644106220527</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.79797514926526</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03909793903581615</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D14">
-        <v>0.3397002452521463</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E14">
-        <v>0.4088460670711953</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F14">
-        <v>2.95770694826146</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G14">
-        <v>0.002518206231185914</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.295104257829991</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J14">
-        <v>0.5589898699062701</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.51711664633206</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03952264973267638</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D15">
-        <v>0.3359472477254712</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E15">
-        <v>0.4045137673118262</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F15">
-        <v>2.965226091377076</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G15">
-        <v>0.002519936953525826</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.295798610881846</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J15">
-        <v>0.5532566232052147</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.34516241147986</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04202022997396249</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D16">
-        <v>0.3144930925328708</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E16">
-        <v>0.3797194329811475</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F16">
-        <v>3.011270726707664</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G16">
-        <v>0.002529956641052987</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.301869770705366</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J16">
-        <v>0.5205326966751613</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.36087799942749</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04360818417469314</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D17">
-        <v>0.3013758691899113</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E17">
-        <v>0.364535182913869</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F17">
-        <v>3.042103776365423</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G17">
-        <v>0.002536195053266764</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.307422394272635</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J17">
-        <v>0.5005682982596511</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.75793518329931</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04454160093062587</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D18">
-        <v>0.2938463225937085</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E18">
-        <v>0.3558102701956614</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F18">
-        <v>3.060768684445122</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G18">
-        <v>0.002539817289642099</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.311272930239568</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J18">
-        <v>0.4891235833190706</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.41142020399315</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04486104669500079</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D19">
-        <v>0.2912994434676079</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E19">
-        <v>0.3528575622702022</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F19">
-        <v>3.067246277433668</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G19">
-        <v>0.002541049603151943</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.312688064944297</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J19">
-        <v>0.4852549536334436</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.2941406244264</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04343705733557179</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D20">
-        <v>0.3027706290929189</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E20">
-        <v>0.366150653550136</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F20">
-        <v>3.038724795483006</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G20">
-        <v>0.002535527446218877</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.306762996088366</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J20">
-        <v>0.5026895280438737</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.8220893636817</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03889542194132112</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D21">
-        <v>0.341500883940796</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E21">
-        <v>0.4109241315067038</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F21">
-        <v>2.954154325573882</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G21">
-        <v>0.002517378086256727</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.294808857678618</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J21">
-        <v>0.5617415243887365</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.59959472766877</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03611517376221407</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D22">
-        <v>0.3669722457311764</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E22">
-        <v>0.4402849908347974</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F22">
-        <v>2.907598764815589</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G22">
-        <v>0.002505811519482462</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.293170293705515</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J22">
-        <v>0.6007285657380805</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.76474702840528</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03758138005613532</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D23">
-        <v>0.3533619494351399</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E23">
-        <v>0.4246044066457557</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F23">
-        <v>2.931627347223753</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G23">
-        <v>0.002511958225769427</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.293463636507624</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J23">
-        <v>0.5798818217844541</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.14251987880368</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04351436008688836</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D24">
-        <v>0.302140021898424</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E24">
-        <v>0.3654202848224202</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F24">
-        <v>3.040249513960021</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G24">
-        <v>0.002535829159915944</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.307059063220549</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J24">
-        <v>0.5017304175736115</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.79308487989636</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0506764719789059</v>
+        <v>0.02679785901331933</v>
       </c>
       <c r="D25">
-        <v>0.2474548565953114</v>
+        <v>0.7959919420432016</v>
       </c>
       <c r="E25">
-        <v>0.3019013171180518</v>
+        <v>0.8705124497823817</v>
       </c>
       <c r="F25">
-        <v>3.192767414498519</v>
+        <v>3.355753446514569</v>
       </c>
       <c r="G25">
-        <v>0.002562884707639039</v>
+        <v>0.0006249256009598001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.346664137761238</v>
+        <v>3.203510314931108</v>
       </c>
       <c r="J25">
-        <v>0.4188691494290424</v>
+        <v>1.288665948162077</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.26914682592604</v>
+        <v>34.90906284148679</v>
       </c>
       <c r="N25">
         <v>0</v>
